--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx_files/template_file_format.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx_files/template_file_format.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,42 +436,182 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>lang_code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>code</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>langCode</t>
+          <t>descr</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>isActive</t>
+          <t>is_active</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ABC</t>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>testla</t>
+          <t>txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Text File</t>
+        </is>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
           <t>eng</t>
         </is>
       </c>
-      <c r="D2" t="b">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>xml</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>XML File</t>
+        </is>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Json File</t>
+        </is>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>txt</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Fichier texte</t>
+        </is>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>xml</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Fichier XML</t>
+        </is>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Fichier Json</t>
+        </is>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>html</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>html file</t>
+        </is>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>html</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Fichier html</t>
+        </is>
+      </c>
+      <c r="D9" t="b">
         <v>1</v>
       </c>
     </row>

--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx_files/template_file_format.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx_files/template_file_format.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,44 +434,208 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>lang_code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>langCode</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>isActive</t>
+          <t>descr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>is_active</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ABC</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>testla</t>
+          <t>eng</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>txt</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Text File</t>
+        </is>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>eng</t>
         </is>
       </c>
-      <c r="D2" t="b">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>xml</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>XML File</t>
+        </is>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Json File</t>
+        </is>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>txt</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Fichier texte</t>
+        </is>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>xml</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Fichier XML</t>
+        </is>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Fichier Json</t>
+        </is>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>html</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>html file</t>
+        </is>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>html</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Fichier html</t>
+        </is>
+      </c>
+      <c r="E9" t="b">
         <v>1</v>
       </c>
     </row>
